--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD881CFA-3C86-4696-8055-721681AD251B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF04AF-DC47-4A62-8031-AE0589F1C8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>biMonthly</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>${RANDOM_GL_CODE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new </t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052A8D3C-812F-4B8D-9F82-68CBC52D4A35}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,6 +665,62 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>7100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF04AF-DC47-4A62-8031-AE0589F1C8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B42323-AA0F-41B1-AE5C-61A5520C2C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>biMonthly</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>${CUSTOMER_TYPE}</t>
-  </si>
-  <si>
-    <t>Corporate</t>
   </si>
   <si>
     <t>${EXPECTED_TEXT_TO_VERIFY}</t>
@@ -423,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,152 +457,97 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -616,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052A8D3C-812F-4B8D-9F82-68CBC52D4A35}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,92 +575,75 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>7100</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>7100</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B42323-AA0F-41B1-AE5C-61A5520C2C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58421C7-B009-42D9-AEF1-DC0250F1071D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,41 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>biMonthly</t>
   </si>
   <si>
-    <t>${START_DATE}</t>
-  </si>
-  <si>
     <t>Personal</t>
   </si>
   <si>
     <t>${PERIODICITY}</t>
   </si>
   <si>
-    <t>${CYCLE_NAME}</t>
-  </si>
-  <si>
-    <t>${START_MONTH}</t>
-  </si>
-  <si>
-    <t>${CUSTOMER_TYPE}</t>
-  </si>
-  <si>
-    <t>${EXPECTED_TEXT_TO_VERIFY}</t>
-  </si>
-  <si>
-    <t>${EXPECTED_TEXT_TO_VERIFY_NEW_BILL}</t>
-  </si>
-  <si>
-    <t>${NEW_CYCLE_NAME}</t>
-  </si>
-  <si>
-    <t>${NEW_CUSTOMER_TYPE}</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -87,22 +63,40 @@
     <t>test</t>
   </si>
   <si>
-    <t>${GL_CODE_NEW_NAME}</t>
-  </si>
-  <si>
     <t>${GL_CODE}</t>
   </si>
   <si>
-    <t>${GL_CODE_NAME}</t>
-  </si>
-  <si>
-    <t>${EXPECTED_TEXT_TO_VERIFY_NEW_GL_CODE}</t>
-  </si>
-  <si>
     <t>${RANDOM_GL_CODE}</t>
   </si>
   <si>
     <t xml:space="preserve">new </t>
+  </si>
+  <si>
+    <t>${EDIT_NAME}</t>
+  </si>
+  <si>
+    <t>${EDIT_VERIFY}</t>
+  </si>
+  <si>
+    <t>${NEW_VERIFY}</t>
+  </si>
+  <si>
+    <t>${GL_NAME}</t>
+  </si>
+  <si>
+    <t>${NAME}</t>
+  </si>
+  <si>
+    <t>${DATE}</t>
+  </si>
+  <si>
+    <t>${MONTH}</t>
+  </si>
+  <si>
+    <t>${TYPE}</t>
+  </si>
+  <si>
+    <t>${EDIT_TYPE}</t>
   </si>
 </sst>
 </file>
@@ -422,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,36 +436,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -483,27 +477,27 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -512,18 +506,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -535,19 +529,19 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +555,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,75 +569,75 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>7100</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>7100</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58421C7-B009-42D9-AEF1-DC0250F1071D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC364D-86D4-4E67-9EC3-AD7488D754DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>biMonthly</t>
   </si>
@@ -69,9 +70,6 @@
     <t>${RANDOM_GL_CODE}</t>
   </si>
   <si>
-    <t xml:space="preserve">new </t>
-  </si>
-  <si>
     <t>${EDIT_NAME}</t>
   </si>
   <si>
@@ -97,6 +95,33 @@
   </si>
   <si>
     <t>${EDIT_TYPE}</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>${RANDOM_NAME}</t>
+  </si>
+  <si>
+    <t>${TAX_PLAN}</t>
+  </si>
+  <si>
+    <t>7 Percent Tax</t>
+  </si>
+  <si>
+    <t>GL_2124</t>
+  </si>
+  <si>
+    <t>GL_212427</t>
+  </si>
+  <si>
+    <t>${EDIT_TAX}</t>
+  </si>
+  <si>
+    <t>${EDIT_GL_CODE}</t>
+  </si>
+  <si>
+    <t>9 Percent Tax</t>
   </si>
 </sst>
 </file>
@@ -416,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -436,31 +461,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -555,7 +580,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,19 +594,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -605,10 +630,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>7100</v>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -617,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>1010</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -634,10 +665,94 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC364D-86D4-4E67-9EC3-AD7488D754DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C8023A-3682-4A1F-96AB-FD365C201D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>biMonthly</t>
   </si>
@@ -106,22 +106,31 @@
     <t>${TAX_PLAN}</t>
   </si>
   <si>
+    <t>GL_2124</t>
+  </si>
+  <si>
+    <t>GL_212427</t>
+  </si>
+  <si>
+    <t>${EDIT_GL_CODE}</t>
+  </si>
+  <si>
+    <t>${DIS_GL_CODE}</t>
+  </si>
+  <si>
+    <t>${RANDOM_APP_CODE}</t>
+  </si>
+  <si>
+    <t>${DIS_APP_CODE}</t>
+  </si>
+  <si>
+    <t>OneTime</t>
+  </si>
+  <si>
     <t>7 Percent Tax</t>
   </si>
   <si>
-    <t>GL_2124</t>
-  </si>
-  <si>
-    <t>GL_212427</t>
-  </si>
-  <si>
-    <t>${EDIT_TAX}</t>
-  </si>
-  <si>
-    <t>${EDIT_GL_CODE}</t>
-  </si>
-  <si>
-    <t>9 Percent Tax</t>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -441,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="BU918" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DA930" sqref="A930:XFD930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052A8D3C-812F-4B8D-9F82-68CBC52D4A35}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -637,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -665,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -679,25 +688,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" customWidth="1"/>
+    <col min="8" max="9" width="22.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -714,19 +724,22 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -734,25 +747,103 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C8023A-3682-4A1F-96AB-FD365C201D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A10F1C1-8FC1-4844-8661-043109F45921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="38">
   <si>
     <t>biMonthly</t>
   </si>
@@ -131,6 +132,24 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>${CODE}</t>
+  </si>
+  <si>
+    <t>x*0.23</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>${EDIT_TAX}</t>
+  </si>
+  <si>
+    <t>x*0.223</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
   </si>
 </sst>
 </file>
@@ -690,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -850,4 +869,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C61F6-4286-4BE3-A49F-BBEF26317692}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A10F1C1-8FC1-4844-8661-043109F45921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53603CC8-EB2C-470C-8D18-26CD64228406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
     <t>biMonthly</t>
   </si>
@@ -149,7 +150,16 @@
     <t>x*0.223</t>
   </si>
   <si>
-    <t>QWERTY</t>
+    <t>${RANDOM_TAX_NAME}</t>
+  </si>
+  <si>
+    <t>${TAX_FORMULA}</t>
+  </si>
+  <si>
+    <t>TAX_FORMULA_2124</t>
+  </si>
+  <si>
+    <t>TAX_PLAN_2124</t>
   </si>
 </sst>
 </file>
@@ -607,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052A8D3C-812F-4B8D-9F82-68CBC52D4A35}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -875,13 +885,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C61F6-4286-4BE3-A49F-BBEF26317692}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="14.90625" customWidth="1"/>
@@ -944,7 +954,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -982,6 +992,85 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B5285C-AB37-4F9D-829E-E9AECDFFFCC7}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="6" width="18.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53603CC8-EB2C-470C-8D18-26CD64228406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F5D20-A9EC-477C-A064-4C64D1153A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
   <si>
     <t>biMonthly</t>
   </si>
@@ -129,9 +129,6 @@
     <t>OneTime</t>
   </si>
   <si>
-    <t>7 Percent Tax</t>
-  </si>
-  <si>
     <t>hello</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>TAX_PLAN_2124</t>
+  </si>
+  <si>
+    <t>Recurring</t>
   </si>
 </sst>
 </file>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,7 +728,7 @@
     <col min="1" max="1" width="22.1796875" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" customWidth="1"/>
     <col min="6" max="6" width="17.26953125" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" customWidth="1"/>
@@ -808,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -846,7 +846,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -873,6 +873,38 @@
       </c>
       <c r="F5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +934,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -920,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -934,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -946,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -954,19 +986,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -977,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -989,7 +1021,7 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -1005,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B5285C-AB37-4F9D-829E-E9AECDFFFCC7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1032,12 +1064,12 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1049,12 +1081,12 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1062,13 +1094,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F5D20-A9EC-477C-A064-4C64D1153A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B717E865-5925-45EC-9DFA-A8F2DC7BF335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
   <si>
     <t>biMonthly</t>
   </si>
@@ -129,9 +129,6 @@
     <t>OneTime</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>${CODE}</t>
   </si>
   <si>
@@ -160,6 +157,30 @@
   </si>
   <si>
     <t>Recurring</t>
+  </si>
+  <si>
+    <t>CHARGER_NAME</t>
+  </si>
+  <si>
+    <t>APP_CODE_CHARGER</t>
+  </si>
+  <si>
+    <t>GL_212121</t>
+  </si>
+  <si>
+    <t>${EDIT_TAX_PLAN}</t>
+  </si>
+  <si>
+    <t>TAX_PLAN_212427</t>
+  </si>
+  <si>
+    <t>${EDIT_DIS_GL_CODE}</t>
+  </si>
+  <si>
+    <t>${EDIT_DIS_APP_CODE}</t>
+  </si>
+  <si>
+    <t>${RANDOM_EDIT_APP_CODE}</t>
   </si>
 </sst>
 </file>
@@ -479,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="BU918" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="DA930" sqref="A930:XFD930"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +639,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,10 +704,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1010</v>
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -717,10 +738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,14 +750,17 @@
     <col min="2" max="2" width="11.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
     <col min="8" max="9" width="22.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -750,13 +774,13 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -765,10 +789,19 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -779,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -793,11 +826,17 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -808,16 +847,16 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -826,10 +865,19 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -840,13 +888,13 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -854,13 +902,19 @@
       <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -869,33 +923,36 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -904,6 +961,15 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -918,7 +984,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,7 +1000,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -952,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -966,7 +1032,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -978,7 +1044,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -986,19 +1052,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1009,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1021,7 +1087,7 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -1064,12 +1130,12 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1081,12 +1147,12 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1094,13 +1160,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B717E865-5925-45EC-9DFA-A8F2DC7BF335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7107A558-7DC5-4CE4-85A0-51B45E3C35F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="DISCOUNTS" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
   <si>
     <t>biMonthly</t>
   </si>
@@ -159,9 +160,6 @@
     <t>Recurring</t>
   </si>
   <si>
-    <t>CHARGER_NAME</t>
-  </si>
-  <si>
     <t>APP_CODE_CHARGER</t>
   </si>
   <si>
@@ -181,6 +179,111 @@
   </si>
   <si>
     <t>${RANDOM_EDIT_APP_CODE}</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>DISCOUNT_2124</t>
+  </si>
+  <si>
+    <t>DISCOUNT_212427</t>
+  </si>
+  <si>
+    <t>UsageDiscount</t>
+  </si>
+  <si>
+    <t>${DURATION}</t>
+  </si>
+  <si>
+    <t>Life Time</t>
+  </si>
+  <si>
+    <t>BillingAccount</t>
+  </si>
+  <si>
+    <t>${DIS_ORIGIN}</t>
+  </si>
+  <si>
+    <t>Entire Invoice</t>
+  </si>
+  <si>
+    <t>${TARGET}</t>
+  </si>
+  <si>
+    <t>${DIS_NAME}</t>
+  </si>
+  <si>
+    <t>${RANDOM_DIS_NAME}</t>
+  </si>
+  <si>
+    <t>${APP_FOR}</t>
+  </si>
+  <si>
+    <t>Volume Percentage</t>
+  </si>
+  <si>
+    <t>${DIS_SLAB}</t>
+  </si>
+  <si>
+    <t>${SLAB_TYPE}</t>
+  </si>
+  <si>
+    <t>${MAX_SLAB}</t>
+  </si>
+  <si>
+    <t>${DUR_VALUE}</t>
+  </si>
+  <si>
+    <t>Fixed Period</t>
+  </si>
+  <si>
+    <t>${MIN_SLAB}</t>
+  </si>
+  <si>
+    <t>${RANDOM_APP_FOR}</t>
+  </si>
+  <si>
+    <t>Volume Fixed</t>
+  </si>
+  <si>
+    <t>${DISC_GL_CODE}</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>${COUNTED_TOWARDS}</t>
+  </si>
+  <si>
+    <t>ENTIRE</t>
+  </si>
+  <si>
+    <t>SELECTED</t>
+  </si>
+  <si>
+    <t>${RANDOM_EDIT_DIS_NAME}</t>
+  </si>
+  <si>
+    <t>${EDIT_DIS_NAME}</t>
+  </si>
+  <si>
+    <t>${RANDOM_EDIT_APP_FOR}</t>
+  </si>
+  <si>
+    <t>${EDIT_APP_FOR}</t>
+  </si>
+  <si>
+    <t>${EDIT_DISC_GL_CODE}</t>
+  </si>
+  <si>
+    <t>${EDIT_DIS_VERIFY}</t>
+  </si>
+  <si>
+    <t>${NEW_DIS_VERIFY}</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -498,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DA930" sqref="A930:XFD930"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,6 +729,32 @@
       </c>
       <c r="I4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +833,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -740,14 +869,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" customWidth="1"/>
@@ -789,13 +918,13 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -827,10 +956,10 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -838,7 +967,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -856,25 +985,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -882,16 +993,19 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -902,11 +1016,14 @@
       <c r="I4" t="s">
         <v>24</v>
       </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -914,10 +1031,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -961,13 +1078,13 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
@@ -1166,10 +1283,288 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224E365A-A32F-4AE9-9E36-1D9F261493A7}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.90625" customWidth="1"/>
+    <col min="15" max="15" width="24.7265625" customWidth="1"/>
+    <col min="16" max="16" width="20.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>20000</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7107A558-7DC5-4CE4-85A0-51B45E3C35F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E267F0-8D15-4A50-993C-3CE683ACFAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
   <si>
     <t>biMonthly</t>
   </si>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1038,6 +1038,9 @@
       </c>
       <c r="C5" t="s">
         <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -1299,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224E365A-A32F-4AE9-9E36-1D9F261493A7}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E267F0-8D15-4A50-993C-3CE683ACFAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C9652-64B0-4D02-9B37-C505CDB3B661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="740" windowWidth="17740" windowHeight="9460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="85">
   <si>
     <t>biMonthly</t>
   </si>
@@ -283,7 +283,16 @@
     <t>${NEW_DIS_VERIFY}</t>
   </si>
   <si>
-    <t>Error</t>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>Service Account</t>
+  </si>
+  <si>
+    <t>Tiered Fixed</t>
+  </si>
+  <si>
+    <t>Tiered Percentage</t>
   </si>
 </sst>
 </file>
@@ -869,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,7 +1113,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1300,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224E365A-A32F-4AE9-9E36-1D9F261493A7}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,7 +1321,7 @@
     <col min="2" max="3" width="13.08984375" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.08984375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
@@ -1390,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -1402,13 +1411,16 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
+        <v>20000</v>
+      </c>
+      <c r="L2">
         <v>5</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
       </c>
       <c r="M2" t="s">
         <v>70</v>
@@ -1431,16 +1443,13 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -1452,13 +1461,13 @@
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
         <v>70</v>
@@ -1481,25 +1490,22 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
         <v>68</v>
@@ -1534,19 +1540,16 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>67</v>
@@ -1555,19 +1558,634 @@
         <v>72</v>
       </c>
       <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>9999</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>20000</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
         <v>68</v>
       </c>
-      <c r="J5">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>20000</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>9999</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K10">
+        <v>20000</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>81</v>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>20000</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>9999</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>20000</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>20000</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>9999</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C9652-64B0-4D02-9B37-C505CDB3B661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC38116-0E5A-4888-86F1-979A0C7979F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="85">
   <si>
     <t>biMonthly</t>
   </si>
@@ -136,9 +136,6 @@
     <t>x*0.23</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>${EDIT_TAX}</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Recurring</t>
   </si>
   <si>
-    <t>APP_CODE_CHARGER</t>
-  </si>
-  <si>
     <t>GL_212121</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>Life Time</t>
   </si>
   <si>
-    <t>BillingAccount</t>
-  </si>
-  <si>
     <t>${DIS_ORIGIN}</t>
   </si>
   <si>
@@ -220,79 +211,88 @@
     <t>${APP_FOR}</t>
   </si>
   <si>
+    <t>${SLAB_TYPE}</t>
+  </si>
+  <si>
+    <t>${DUR_VALUE}</t>
+  </si>
+  <si>
+    <t>${MIN_SLAB}</t>
+  </si>
+  <si>
+    <t>${RANDOM_APP_FOR}</t>
+  </si>
+  <si>
+    <t>${DISC_GL_CODE}</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>${COUNTED_TOWARDS}</t>
+  </si>
+  <si>
+    <t>ENTIRE</t>
+  </si>
+  <si>
+    <t>${RANDOM_EDIT_DIS_NAME}</t>
+  </si>
+  <si>
+    <t>${EDIT_DIS_NAME}</t>
+  </si>
+  <si>
+    <t>${RANDOM_EDIT_APP_FOR}</t>
+  </si>
+  <si>
+    <t>${EDIT_APP_FOR}</t>
+  </si>
+  <si>
+    <t>${EDIT_DISC_GL_CODE}</t>
+  </si>
+  <si>
+    <t>${EDIT_DIS_VERIFY}</t>
+  </si>
+  <si>
+    <t>${NEW_DIS_VERIFY}</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>${NO_SLABS}</t>
+  </si>
+  <si>
+    <t>${MAX_SLAB-1}</t>
+  </si>
+  <si>
+    <t>${MAX_SLAB-2}</t>
+  </si>
+  <si>
+    <t>${MAX_SLAB-3}</t>
+  </si>
+  <si>
+    <t>${DIS_SLAB-1}</t>
+  </si>
+  <si>
+    <t>${DIS_SLAB-2}</t>
+  </si>
+  <si>
+    <t>${DIS_SLAB-3}</t>
+  </si>
+  <si>
     <t>Volume Percentage</t>
   </si>
   <si>
-    <t>${DIS_SLAB}</t>
-  </si>
-  <si>
-    <t>${SLAB_TYPE}</t>
-  </si>
-  <si>
-    <t>${MAX_SLAB}</t>
-  </si>
-  <si>
-    <t>${DUR_VALUE}</t>
-  </si>
-  <si>
-    <t>Fixed Period</t>
-  </si>
-  <si>
-    <t>${MIN_SLAB}</t>
-  </si>
-  <si>
-    <t>${RANDOM_APP_FOR}</t>
-  </si>
-  <si>
-    <t>Volume Fixed</t>
-  </si>
-  <si>
-    <t>${DISC_GL_CODE}</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>${COUNTED_TOWARDS}</t>
-  </si>
-  <si>
-    <t>ENTIRE</t>
-  </si>
-  <si>
     <t>SELECTED</t>
   </si>
   <si>
-    <t>${RANDOM_EDIT_DIS_NAME}</t>
-  </si>
-  <si>
-    <t>${EDIT_DIS_NAME}</t>
-  </si>
-  <si>
-    <t>${RANDOM_EDIT_APP_FOR}</t>
-  </si>
-  <si>
-    <t>${EDIT_APP_FOR}</t>
-  </si>
-  <si>
-    <t>${EDIT_DISC_GL_CODE}</t>
-  </si>
-  <si>
-    <t>${EDIT_DIS_VERIFY}</t>
-  </si>
-  <si>
-    <t>${NEW_DIS_VERIFY}</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Service Account</t>
-  </si>
-  <si>
-    <t>Tiered Fixed</t>
-  </si>
-  <si>
-    <t>Tiered Percentage</t>
+    <t>GL-212427</t>
+  </si>
+  <si>
+    <t>TAX_FORMULA_2121</t>
+  </si>
+  <si>
+    <t>TAX_PLAN_2121</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -777,7 +777,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,18 +837,18 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -876,10 +876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -927,13 +927,13 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -965,10 +965,10 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -985,7 +985,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -994,45 +994,63 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -1040,65 +1058,42 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1113,7 +1108,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -1173,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -1181,7 +1176,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1193,7 +1188,16 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1233,7 +1237,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,12 +1263,12 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1276,29 +1280,41 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1309,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224E365A-A32F-4AE9-9E36-1D9F261493A7}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,59 +1340,62 @@
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.08984375" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.90625" customWidth="1"/>
-    <col min="15" max="15" width="24.7265625" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" customWidth="1"/>
+    <col min="18" max="18" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.90625" customWidth="1"/>
+    <col min="20" max="20" width="24.7265625" customWidth="1"/>
+    <col min="21" max="21" width="20.54296875" customWidth="1"/>
+    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" t="s">
         <v>77</v>
@@ -1387,805 +1406,150 @@
       <c r="Q1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+      <c r="M2">
+        <v>2000</v>
+      </c>
+      <c r="N2">
+        <v>20000</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>20000</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+      <c r="N3">
+        <v>20000</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>20000</v>
-      </c>
-      <c r="L4">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5">
-        <v>9999</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>20000</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>20000</v>
-      </c>
-      <c r="L8">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9">
-        <v>9999</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>20000</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>20000</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13">
-        <v>9999</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>20000</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>20000</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17">
-        <v>9999</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-      <c r="M17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>70</v>
+      <c r="V3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC38116-0E5A-4888-86F1-979A0C7979F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F19F7-1294-4784-9F31-828280FBD6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="85">
   <si>
     <t>biMonthly</t>
   </si>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,16 +690,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>6</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -707,8 +707,14 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -716,14 +722,11 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
@@ -731,38 +734,12 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -774,7 +751,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052A8D3C-812F-4B8D-9F82-68CBC52D4A35}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -837,12 +814,12 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -850,21 +827,10 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -878,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,7 +960,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>47</v>
@@ -1035,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -1108,7 +1074,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1188,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1237,7 +1203,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1288,7 +1254,7 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1311,7 +1277,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F19F7-1294-4784-9F31-828280FBD6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CCFDDF-0668-494F-ABE3-8D499351DBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
   <si>
     <t>biMonthly</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>TAX_PLAN_2121</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C61F6-4286-4BE3-A49F-BBEF26317692}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1157,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1293,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224E365A-A32F-4AE9-9E36-1D9F261493A7}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CCFDDF-0668-494F-ABE3-8D499351DBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F6B128-1E5D-4A36-A1F8-539D6AFEC82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>biMonthly</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>TAX_FORMULA_2121</t>
-  </si>
-  <si>
-    <t>TAX_PLAN_2121</t>
   </si>
   <si>
     <t>Failed</t>
@@ -847,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1076,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C61F6-4286-4BE3-A49F-BBEF26317692}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1157,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1205,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B5285C-AB37-4F9D-829E-E9AECDFFFCC7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,24 +1246,15 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1277,13 +1265,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/Data.xlsx
+++ b/Test_Data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shajuam\Music\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F6B128-1E5D-4A36-A1F8-539D6AFEC82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7B6338-EA2C-4444-A2D1-A47883DA456D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="84">
   <si>
     <t>biMonthly</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Recurring</t>
-  </si>
-  <si>
-    <t>GL_212121</t>
   </si>
   <si>
     <t>${EDIT_TAX_PLAN}</t>
@@ -737,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -844,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF40C36-A208-44DC-967C-A43B0EE20F9A}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,13 +890,13 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
         <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -931,10 +928,10 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -942,7 +939,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -963,19 +960,19 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -983,10 +980,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1004,19 +1001,19 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -1030,13 +1027,13 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1048,16 +1045,16 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
         <v>4</v>
@@ -1142,7 +1139,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1154,7 +1151,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1202,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B5285C-AB37-4F9D-829E-E9AECDFFFCC7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1246,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1271,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1313,99 +1310,99 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>76</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>77</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" t="s">
-        <v>79</v>
-      </c>
       <c r="R1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1429,48 +1426,48 @@
         <v>9</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
         <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1494,19 +1491,19 @@
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
         <v>24</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
